--- a/xlsx/庫拉索_intext.xlsx
+++ b/xlsx/庫拉索_intext.xlsx
@@ -29,7 +29,7 @@
     <t>荷蘭文</t>
   </si>
   <si>
-    <t>政策_政策_美國_庫拉索</t>
+    <t>体育运动_体育运动_南非_庫拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%9A%AE%E9%98%BF%E9%97%A8%E6%89%98%E8%AF%AD</t>
